--- a/DatabaseUpdate/ExcelFiles/StaffCategories.xlsx
+++ b/DatabaseUpdate/ExcelFiles/StaffCategories.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <x:si>
     <x:t>Id</x:t>
   </x:si>
@@ -22,64 +22,67 @@
     <x:t>Name</x:t>
   </x:si>
   <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Руководители</x:t>
+  </x:si>
+  <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>Руководители</x:t>
+    <x:t>АдмУпр</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>Административное управление</x:t>
+    <x:t>НИЧ</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>Научно-исследовательская часть</x:t>
+    <x:t>НИЧ_УВП</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>НИЧ_УВП</x:t>
+    <x:t>АХЧ</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>Административно-хозяйственная часть</x:t>
+    <x:t>врачебный</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>Врачебный персонал</x:t>
+    <x:t>срМедПерсонал</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
   </x:si>
   <x:si>
-    <x:t>Средний медперсонал</x:t>
+    <x:t>млМедПерсонал</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>Младший медперсонал</x:t>
+    <x:t>Прочий персонал</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>Прочий персонал</x:t>
+    <x:t>УВП</x:t>
   </x:si>
   <x:si>
     <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>УВП</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -430,7 +433,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B11"/>
+  <x:dimension ref="A1:B12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -524,6 +527,12 @@
         <x:v>21</x:v>
       </x:c>
     </x:row>
+    <x:row r="12" spans="1:2">
+      <x:c r="A12" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/DatabaseUpdate/ExcelFiles/StaffCategories.xlsx
+++ b/DatabaseUpdate/ExcelFiles/StaffCategories.xlsx
@@ -14,75 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <x:si>
     <x:t>Id</x:t>
   </x:si>
   <x:si>
+    <x:t>ParentId</x:t>
+  </x:si>
+  <x:si>
     <x:t>Name</x:t>
   </x:si>
   <x:si>
+    <x:t>Options</x:t>
+  </x:si>
+  <x:si>
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>Руководители</x:t>
+    <x:t>NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Администрация</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>АдмУпр</x:t>
+    <x:t>Врачебный персонал</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>НИЧ</x:t>
+    <x:t>Средний медицинский персонал</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>НИЧ_УВП</x:t>
+    <x:t>Младший медицинский персонал</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>АХЧ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>врачебный</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>срМедПерсонал</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>млМедПерсонал</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Прочий персонал</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>УВП</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
+    <x:t>Технический персонал</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -433,105 +409,80 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B12"/>
+  <x:dimension ref="A1:D6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:2">
+    <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:2">
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
       <x:c r="A2" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
       <x:c r="A3" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
+      <x:c r="C3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
       <x:c r="A4" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
       <x:c r="A5" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
       <x:c r="A6" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
-      <x:c r="A7" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2">
-      <x:c r="A8" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:2">
-      <x:c r="A9" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:2">
-      <x:c r="A10" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:2">
-      <x:c r="A11" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:2">
-      <x:c r="A12" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
